--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H2">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I2">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J2">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N2">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O2">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P2">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q2">
-        <v>131.6667289883823</v>
+        <v>365.317416727623</v>
       </c>
       <c r="R2">
-        <v>526.666915953529</v>
+        <v>1461.269666910492</v>
       </c>
       <c r="S2">
-        <v>0.09444146790836351</v>
+        <v>0.09566372669624187</v>
       </c>
       <c r="T2">
-        <v>0.06333509598392374</v>
+        <v>0.0675308944148702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H3">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I3">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J3">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P3">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q3">
-        <v>31.48074549721149</v>
+        <v>56.10794402081398</v>
       </c>
       <c r="R3">
-        <v>188.884472983269</v>
+        <v>336.6476641248839</v>
       </c>
       <c r="S3">
-        <v>0.02258040310144404</v>
+        <v>0.01469268854021581</v>
       </c>
       <c r="T3">
-        <v>0.02271457701991625</v>
+        <v>0.01555778401196552</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H4">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I4">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J4">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N4">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O4">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P4">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q4">
-        <v>5.936622475638</v>
+        <v>23.68228632572</v>
       </c>
       <c r="R4">
-        <v>35.61973485382799</v>
+        <v>142.09371795432</v>
       </c>
       <c r="S4">
-        <v>0.004258200574470915</v>
+        <v>0.006201554217971996</v>
       </c>
       <c r="T4">
-        <v>0.004283503021648258</v>
+        <v>0.006566697497031739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H5">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I5">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J5">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N5">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O5">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P5">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q5">
-        <v>14.5105499455975</v>
+        <v>34.64036393160299</v>
       </c>
       <c r="R5">
-        <v>58.04219978239</v>
+        <v>138.561455726412</v>
       </c>
       <c r="S5">
-        <v>0.01040807839268773</v>
+        <v>0.009071087651651658</v>
       </c>
       <c r="T5">
-        <v>0.006979949153783782</v>
+        <v>0.0064034580669936</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H6">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I6">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J6">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N6">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O6">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P6">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q6">
-        <v>94.92275493063035</v>
+        <v>638.9172326255059</v>
       </c>
       <c r="R6">
-        <v>569.536529583782</v>
+        <v>3833.503395753036</v>
       </c>
       <c r="S6">
-        <v>0.06808587395184384</v>
+        <v>0.1673098536360695</v>
       </c>
       <c r="T6">
-        <v>0.06849044372235161</v>
+        <v>0.177160943609392</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.7195445</v>
+        <v>42.27520199999999</v>
       </c>
       <c r="H7">
-        <v>47.439089</v>
+        <v>84.55040399999999</v>
       </c>
       <c r="I7">
-        <v>0.205848174769845</v>
+        <v>0.2947240430577394</v>
       </c>
       <c r="J7">
-        <v>0.1719138126598697</v>
+        <v>0.2751100172880195</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N7">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O7">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P7">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q7">
-        <v>8.468351777390001</v>
+        <v>6.817003148105999</v>
       </c>
       <c r="R7">
-        <v>50.81011066434</v>
+        <v>40.902018888636</v>
       </c>
       <c r="S7">
-        <v>0.00607415084103501</v>
+        <v>0.001785132315588616</v>
       </c>
       <c r="T7">
-        <v>0.006110243758246077</v>
+        <v>0.001890239687766472</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>33.086472</v>
       </c>
       <c r="I8">
-        <v>0.09571276928432844</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J8">
-        <v>0.1199015762925807</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N8">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O8">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P8">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q8">
-        <v>61.22078696193201</v>
+        <v>95.304606545076</v>
       </c>
       <c r="R8">
-        <v>367.3247217715921</v>
+        <v>571.8276392704561</v>
       </c>
       <c r="S8">
-        <v>0.04391223987724508</v>
+        <v>0.02495690984319728</v>
       </c>
       <c r="T8">
-        <v>0.04417316866876187</v>
+        <v>0.02642635565872115</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>33.086472</v>
       </c>
       <c r="I9">
-        <v>0.09571276928432844</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J9">
-        <v>0.1199015762925807</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P9">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q9">
         <v>14.637532414568</v>
@@ -1013,10 +1013,10 @@
         <v>131.737791731112</v>
       </c>
       <c r="S9">
-        <v>0.01049915995034729</v>
+        <v>0.003833052672270071</v>
       </c>
       <c r="T9">
-        <v>0.01584231974946446</v>
+        <v>0.006088110295652103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>33.086472</v>
       </c>
       <c r="I10">
-        <v>0.09571276928432844</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J10">
-        <v>0.1199015762925807</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N10">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O10">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P10">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q10">
-        <v>2.760338186016</v>
+        <v>6.178273679306667</v>
       </c>
       <c r="R10">
-        <v>24.843043674144</v>
+        <v>55.60446311376</v>
       </c>
       <c r="S10">
-        <v>0.001979926077102308</v>
+        <v>0.001617871630665911</v>
       </c>
       <c r="T10">
-        <v>0.00298753634977435</v>
+        <v>0.002569696211836087</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>33.086472</v>
       </c>
       <c r="I11">
-        <v>0.09571276928432844</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J11">
-        <v>0.1199015762925807</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N11">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O11">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P11">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q11">
-        <v>6.746938226120001</v>
+        <v>9.037034928836</v>
       </c>
       <c r="R11">
-        <v>40.48162935672001</v>
+        <v>54.222209573016</v>
       </c>
       <c r="S11">
-        <v>0.004839421126790856</v>
+        <v>0.002366480216904451</v>
       </c>
       <c r="T11">
-        <v>0.004868177216432019</v>
+        <v>0.002505816956673062</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>33.086472</v>
       </c>
       <c r="I12">
-        <v>0.09571276928432844</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J12">
-        <v>0.1199015762925807</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N12">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O12">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P12">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q12">
-        <v>44.13602283657067</v>
+        <v>166.6817750319387</v>
       </c>
       <c r="R12">
-        <v>397.224205529136</v>
+        <v>1500.135975287448</v>
       </c>
       <c r="S12">
-        <v>0.03165773780778422</v>
+        <v>0.04364806888960508</v>
       </c>
       <c r="T12">
-        <v>0.04776877457505903</v>
+        <v>0.06932705608628112</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>33.086472</v>
       </c>
       <c r="I13">
-        <v>0.09571276928432844</v>
+        <v>0.07688809149752213</v>
       </c>
       <c r="J13">
-        <v>0.1199015762925807</v>
+        <v>0.1076567284518188</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N13">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O13">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P13">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q13">
-        <v>3.937510744480001</v>
+        <v>1.778430956472</v>
       </c>
       <c r="R13">
-        <v>35.43759670032001</v>
+        <v>16.005878608248</v>
       </c>
       <c r="S13">
-        <v>0.002824284445058678</v>
+        <v>0.0004657082448793338</v>
       </c>
       <c r="T13">
-        <v>0.004261599733088964</v>
+        <v>0.000739693242655282</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.35583</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H14">
-        <v>16.06749</v>
+        <v>5.685935</v>
       </c>
       <c r="I14">
-        <v>0.04648014340568721</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J14">
-        <v>0.05822673925661452</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N14">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O14">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P14">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q14">
-        <v>29.730107891315</v>
+        <v>16.3781680324175</v>
       </c>
       <c r="R14">
-        <v>178.38064734789</v>
+        <v>98.26900819450501</v>
       </c>
       <c r="S14">
-        <v>0.02132471165572554</v>
+        <v>0.004288863653074885</v>
       </c>
       <c r="T14">
-        <v>0.02145142419093957</v>
+        <v>0.004541389017311083</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.35583</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H15">
-        <v>16.06749</v>
+        <v>5.685935</v>
       </c>
       <c r="I15">
-        <v>0.04648014340568721</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J15">
-        <v>0.05822673925661452</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P15">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q15">
-        <v>7.108295066809999</v>
+        <v>2.515470911181666</v>
       </c>
       <c r="R15">
-        <v>63.97465560128999</v>
+        <v>22.639238200635</v>
       </c>
       <c r="S15">
-        <v>0.005098613944412256</v>
+        <v>0.0006587129732690729</v>
       </c>
       <c r="T15">
-        <v>0.007693365256692305</v>
+        <v>0.001046246315228431</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.35583</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H16">
-        <v>16.06749</v>
+        <v>5.685935</v>
       </c>
       <c r="I16">
-        <v>0.04648014340568721</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J16">
-        <v>0.05822673925661452</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N16">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O16">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P16">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q16">
-        <v>1.34047855572</v>
+        <v>1.061740960255555</v>
       </c>
       <c r="R16">
-        <v>12.06430700148</v>
+        <v>9.555668642299999</v>
       </c>
       <c r="S16">
-        <v>0.000961493943645021</v>
+        <v>0.0002780324517618675</v>
       </c>
       <c r="T16">
-        <v>0.001450810785285172</v>
+        <v>0.0004416042190973466</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.35583</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H17">
-        <v>16.06749</v>
+        <v>5.685935</v>
       </c>
       <c r="I17">
-        <v>0.04648014340568721</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J17">
-        <v>0.05822673925661452</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N17">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O17">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P17">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q17">
-        <v>3.27645578165</v>
+        <v>1.553021222634167</v>
       </c>
       <c r="R17">
-        <v>19.6587346899</v>
+        <v>9.318127335805</v>
       </c>
       <c r="S17">
-        <v>0.002350125167787633</v>
+        <v>0.0004066813981286554</v>
       </c>
       <c r="T17">
-        <v>0.002364089732602778</v>
+        <v>0.0004306265212423025</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.35583</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H18">
-        <v>16.06749</v>
+        <v>5.685935</v>
       </c>
       <c r="I18">
-        <v>0.04648014340568721</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J18">
-        <v>0.05822673925661452</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N18">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O18">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P18">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q18">
-        <v>21.43338538984667</v>
+        <v>28.64438790924056</v>
       </c>
       <c r="R18">
-        <v>192.90046850862</v>
+        <v>257.799491183165</v>
       </c>
       <c r="S18">
-        <v>0.01537366648366725</v>
+        <v>0.007500953337721129</v>
       </c>
       <c r="T18">
-        <v>0.0231975264028457</v>
+        <v>0.01191390652493711</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.35583</v>
+        <v>1.895311666666667</v>
       </c>
       <c r="H19">
-        <v>16.06749</v>
+        <v>5.685935</v>
       </c>
       <c r="I19">
-        <v>0.04648014340568721</v>
+        <v>0.01321327612472443</v>
       </c>
       <c r="J19">
-        <v>0.05822673925661452</v>
+        <v>0.01850088943570933</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N19">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O19">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P19">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q19">
-        <v>1.9121384266</v>
+        <v>0.305624692185</v>
       </c>
       <c r="R19">
-        <v>17.2092458394</v>
+        <v>2.750622229665</v>
       </c>
       <c r="S19">
-        <v>0.001371532210449511</v>
+        <v>8.003231076882343E-05</v>
       </c>
       <c r="T19">
-        <v>0.002069522888248998</v>
+        <v>0.0001271168378930567</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>46.01855949999999</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H20">
-        <v>92.03711899999999</v>
+        <v>161.423172</v>
       </c>
       <c r="I20">
-        <v>0.3993683975934914</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J20">
-        <v>0.33353195364945</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N20">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O20">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P20">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q20">
-        <v>255.4481264225898</v>
+        <v>697.4620274436392</v>
       </c>
       <c r="R20">
-        <v>1021.792505690359</v>
+        <v>2789.848109774557</v>
       </c>
       <c r="S20">
-        <v>0.1832269717577572</v>
+        <v>0.1826406673189692</v>
       </c>
       <c r="T20">
-        <v>0.1228771439086617</v>
+        <v>0.1289296167578979</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>46.01855949999999</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H21">
-        <v>92.03711899999999</v>
+        <v>161.423172</v>
       </c>
       <c r="I21">
-        <v>0.3993683975934914</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J21">
-        <v>0.33353195364945</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P21">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q21">
-        <v>61.07615429831648</v>
+        <v>107.120981920302</v>
       </c>
       <c r="R21">
-        <v>366.4569257898989</v>
+        <v>642.7258915218121</v>
       </c>
       <c r="S21">
-        <v>0.04380849824741731</v>
+        <v>0.02805120114351772</v>
       </c>
       <c r="T21">
-        <v>0.04406881060082535</v>
+        <v>0.02970283671858458</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>46.01855949999999</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H22">
-        <v>92.03711899999999</v>
+        <v>161.423172</v>
       </c>
       <c r="I22">
-        <v>0.3993683975934914</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J22">
-        <v>0.33353195364945</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N22">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O22">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P22">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q22">
-        <v>11.517709145898</v>
+        <v>45.21409239996</v>
       </c>
       <c r="R22">
-        <v>69.10625487538799</v>
+        <v>271.2845543997601</v>
       </c>
       <c r="S22">
-        <v>0.008261383623923469</v>
+        <v>0.01183997362324868</v>
       </c>
       <c r="T22">
-        <v>0.00831047319100711</v>
+        <v>0.01253710318800279</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>46.01855949999999</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H23">
-        <v>92.03711899999999</v>
+        <v>161.423172</v>
       </c>
       <c r="I23">
-        <v>0.3993683975934914</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J23">
-        <v>0.33353195364945</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N23">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O23">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P23">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q23">
-        <v>28.1520838669225</v>
+        <v>66.13519463577902</v>
       </c>
       <c r="R23">
-        <v>112.60833546769</v>
+        <v>264.5407785431161</v>
       </c>
       <c r="S23">
-        <v>0.02019283189837665</v>
+        <v>0.01731847126620048</v>
       </c>
       <c r="T23">
-        <v>0.01354187916384202</v>
+        <v>0.01222544735496587</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>46.01855949999999</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H24">
-        <v>92.03711899999999</v>
+        <v>161.423172</v>
       </c>
       <c r="I24">
-        <v>0.3993683975934914</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J24">
-        <v>0.33353195364945</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N24">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O24">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P24">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q24">
-        <v>184.1607222128203</v>
+        <v>1219.817309635458</v>
       </c>
       <c r="R24">
-        <v>1104.964333276922</v>
+        <v>7318.903857812749</v>
       </c>
       <c r="S24">
-        <v>0.1320941825658763</v>
+        <v>0.3194270636576743</v>
       </c>
       <c r="T24">
-        <v>0.1328790930035962</v>
+        <v>0.3382347111190763</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>46.01855949999999</v>
+        <v>80.71158600000001</v>
       </c>
       <c r="H25">
-        <v>92.03711899999999</v>
+        <v>161.423172</v>
       </c>
       <c r="I25">
-        <v>0.3993683975934914</v>
+        <v>0.5626855419288699</v>
       </c>
       <c r="J25">
-        <v>0.33353195364945</v>
+        <v>0.5252385504817572</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N25">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O25">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P25">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q25">
-        <v>16.42954611269</v>
+        <v>13.014985377258</v>
       </c>
       <c r="R25">
-        <v>98.57727667614</v>
+        <v>78.08991226354802</v>
       </c>
       <c r="S25">
-        <v>0.01178452950014047</v>
+        <v>0.003408164919259516</v>
       </c>
       <c r="T25">
-        <v>0.01185455378151763</v>
+        <v>0.003608835343229744</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>21.52362933333333</v>
+        <v>1.45427</v>
       </c>
       <c r="H26">
-        <v>64.570888</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I26">
-        <v>0.1867911001701303</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J26">
-        <v>0.2339974855527565</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N26">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O26">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P26">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q26">
-        <v>119.4772467185613</v>
+        <v>12.566945502105</v>
       </c>
       <c r="R26">
-        <v>716.863480311368</v>
+        <v>75.40167301263001</v>
       </c>
       <c r="S26">
-        <v>0.08569823712067959</v>
+        <v>0.003290839102851448</v>
       </c>
       <c r="T26">
-        <v>0.08620746046044836</v>
+        <v>0.003484601462840319</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>21.52362933333333</v>
+        <v>1.45427</v>
       </c>
       <c r="H27">
-        <v>64.570888</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I27">
-        <v>0.1867911001701303</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J27">
-        <v>0.2339974855527565</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P27">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q27">
-        <v>28.56631151660533</v>
+        <v>1.93011732389</v>
       </c>
       <c r="R27">
-        <v>257.096803649448</v>
+        <v>17.37105591501</v>
       </c>
       <c r="S27">
-        <v>0.02048994771180078</v>
+        <v>0.0005054295462238039</v>
       </c>
       <c r="T27">
-        <v>0.03091755005498495</v>
+        <v>0.0008027833393349994</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>21.52362933333333</v>
+        <v>1.45427</v>
       </c>
       <c r="H28">
-        <v>64.570888</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I28">
-        <v>0.1867911001701303</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J28">
-        <v>0.2339974855527565</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N28">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O28">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P28">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q28">
-        <v>5.387020044064</v>
+        <v>0.8146723588666668</v>
       </c>
       <c r="R28">
-        <v>48.483180396576</v>
+        <v>7.332051229800001</v>
       </c>
       <c r="S28">
-        <v>0.003863983593441226</v>
+        <v>0.0002133339126935488</v>
       </c>
       <c r="T28">
-        <v>0.005830415374513437</v>
+        <v>0.0003388423017709655</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>21.52362933333333</v>
+        <v>1.45427</v>
       </c>
       <c r="H29">
-        <v>64.570888</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I29">
-        <v>0.1867911001701303</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J29">
-        <v>0.2339974855527565</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N29">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O29">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P29">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q29">
-        <v>13.16718786281333</v>
+        <v>1.191631019405</v>
       </c>
       <c r="R29">
-        <v>79.00312717688</v>
+        <v>7.149786116430001</v>
       </c>
       <c r="S29">
-        <v>0.009444516162461992</v>
+        <v>0.0003120460699198424</v>
       </c>
       <c r="T29">
-        <v>0.009500635964039432</v>
+        <v>0.0003304191295083623</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>21.52362933333333</v>
+        <v>1.45427</v>
       </c>
       <c r="H30">
-        <v>64.570888</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I30">
-        <v>0.1867911001701303</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J30">
-        <v>0.2339974855527565</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N30">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O30">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P30">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q30">
-        <v>86.13496740739379</v>
+        <v>21.97879891597667</v>
       </c>
       <c r="R30">
-        <v>775.214706666544</v>
+        <v>197.8091902437901</v>
       </c>
       <c r="S30">
-        <v>0.06178259931490431</v>
+        <v>0.005755471040619199</v>
       </c>
       <c r="T30">
-        <v>0.09322457205420343</v>
+        <v>0.009141523870051427</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>21.52362933333333</v>
+        <v>1.45427</v>
       </c>
       <c r="H31">
-        <v>64.570888</v>
+        <v>4.362810000000001</v>
       </c>
       <c r="I31">
-        <v>0.1867911001701303</v>
+        <v>0.01013852835280548</v>
       </c>
       <c r="J31">
-        <v>0.2339974855527565</v>
+        <v>0.01419570667603605</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N31">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O31">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P31">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q31">
-        <v>7.684366144586668</v>
+        <v>0.23450540031</v>
       </c>
       <c r="R31">
-        <v>69.15929530128001</v>
+        <v>2.110548602790001</v>
       </c>
       <c r="S31">
-        <v>0.005511816266842413</v>
+        <v>6.140868049763682E-05</v>
       </c>
       <c r="T31">
-        <v>0.008316851644566921</v>
+        <v>9.75365725299721E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.581957666666665</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H32">
-        <v>22.745873</v>
+        <v>18.224269</v>
       </c>
       <c r="I32">
-        <v>0.06579941477651759</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J32">
-        <v>0.08242843258872844</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N32">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O32">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P32">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q32">
-        <v>42.08729915949216</v>
+        <v>52.4944692385645</v>
       </c>
       <c r="R32">
-        <v>252.523794956953</v>
+        <v>314.966815431387</v>
       </c>
       <c r="S32">
-        <v>0.03018823618889775</v>
+        <v>0.01374644713982122</v>
       </c>
       <c r="T32">
-        <v>0.03036761624349784</v>
+        <v>0.0145558285638374</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.581957666666665</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H33">
-        <v>22.745873</v>
+        <v>18.224269</v>
       </c>
       <c r="I33">
-        <v>0.06579941477651759</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J33">
-        <v>0.08242843258872844</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P33">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q33">
-        <v>10.06282728890366</v>
+        <v>8.062459128894332</v>
       </c>
       <c r="R33">
-        <v>90.56544560013297</v>
+        <v>72.56213216004899</v>
       </c>
       <c r="S33">
-        <v>0.00721783086565669</v>
+        <v>0.002111273241541698</v>
       </c>
       <c r="T33">
-        <v>0.01089107938273716</v>
+        <v>0.003353375353214856</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.581957666666665</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H34">
-        <v>22.745873</v>
+        <v>18.224269</v>
       </c>
       <c r="I34">
-        <v>0.06579941477651759</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J34">
-        <v>0.08242843258872844</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N34">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O34">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P34">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q34">
-        <v>1.897642692644</v>
+        <v>3.403037999557778</v>
       </c>
       <c r="R34">
-        <v>17.078784233796</v>
+        <v>30.62734199602</v>
       </c>
       <c r="S34">
-        <v>0.00136113475921994</v>
+        <v>0.0008911354406333869</v>
       </c>
       <c r="T34">
-        <v>0.002053834038118387</v>
+        <v>0.001415407330608771</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.581957666666665</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H35">
-        <v>22.745873</v>
+        <v>18.224269</v>
       </c>
       <c r="I35">
-        <v>0.06579941477651759</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J35">
-        <v>0.08242843258872844</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N35">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O35">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P35">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q35">
-        <v>4.638300512371666</v>
+        <v>4.977664451667834</v>
       </c>
       <c r="R35">
-        <v>27.82980307423</v>
+        <v>29.865986710007</v>
       </c>
       <c r="S35">
-        <v>0.003326944569475455</v>
+        <v>0.001303474485162548</v>
       </c>
       <c r="T35">
-        <v>0.003346713445496885</v>
+        <v>0.00138022217307337</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.581957666666665</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H36">
-        <v>22.745873</v>
+        <v>18.224269</v>
       </c>
       <c r="I36">
-        <v>0.06579941477651759</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J36">
-        <v>0.08242843258872844</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N36">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O36">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P36">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q36">
-        <v>30.34207969244155</v>
+        <v>91.80953187089679</v>
       </c>
       <c r="R36">
-        <v>273.078717231974</v>
+        <v>826.2857868380711</v>
       </c>
       <c r="S36">
-        <v>0.02176366472808459</v>
+        <v>0.02404167324865263</v>
       </c>
       <c r="T36">
-        <v>0.03283947831760127</v>
+        <v>0.03818584583737046</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.581957666666665</v>
+        <v>6.074756333333333</v>
       </c>
       <c r="H37">
-        <v>22.745873</v>
+        <v>18.224269</v>
       </c>
       <c r="I37">
-        <v>0.06579941477651759</v>
+        <v>0.04235051903833857</v>
       </c>
       <c r="J37">
-        <v>0.08242843258872844</v>
+        <v>0.05929810766665904</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N37">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O37">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P37">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q37">
-        <v>2.706910526153333</v>
+        <v>0.979572683019</v>
       </c>
       <c r="R37">
-        <v>24.36219473538</v>
+        <v>8.816154147171</v>
       </c>
       <c r="S37">
-        <v>0.001941603665183165</v>
+        <v>0.0002565154825270839</v>
       </c>
       <c r="T37">
-        <v>0.002929711161276895</v>
+        <v>0.0004074284085541708</v>
       </c>
     </row>
   </sheetData>
